--- a/natmiOut/YoungD4/LR-pairs_lrc2p/H2-M3-Klrd1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/H2-M3-Klrd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.20735415673568</v>
+        <v>4.366593333333333</v>
       </c>
       <c r="H2">
-        <v>4.20735415673568</v>
+        <v>13.09978</v>
       </c>
       <c r="I2">
-        <v>0.1616270356825565</v>
+        <v>0.1610144701463773</v>
       </c>
       <c r="J2">
-        <v>0.1616270356825565</v>
+        <v>0.1610144701463773</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.42838078867439</v>
+        <v>0.04040533333333333</v>
       </c>
       <c r="N2">
-        <v>2.42838078867439</v>
+        <v>0.121216</v>
       </c>
       <c r="O2">
-        <v>0.6006211821789871</v>
+        <v>0.009158328487187175</v>
       </c>
       <c r="P2">
-        <v>0.6006211821789871</v>
+        <v>0.009158328487187173</v>
       </c>
       <c r="Q2">
-        <v>10.21705800536626</v>
+        <v>0.1764336591644445</v>
       </c>
       <c r="R2">
-        <v>10.21705800536626</v>
+        <v>1.58790293248</v>
       </c>
       <c r="S2">
-        <v>0.09707662124374242</v>
+        <v>0.001474623408790916</v>
       </c>
       <c r="T2">
-        <v>0.09707662124374242</v>
+        <v>0.001474623408790915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.20735415673568</v>
+        <v>4.366593333333333</v>
       </c>
       <c r="H3">
-        <v>4.20735415673568</v>
+        <v>13.09978</v>
       </c>
       <c r="I3">
-        <v>0.1616270356825565</v>
+        <v>0.1610144701463773</v>
       </c>
       <c r="J3">
-        <v>0.1616270356825565</v>
+        <v>0.1610144701463773</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.61473467366161</v>
+        <v>2.697694</v>
       </c>
       <c r="N3">
-        <v>1.61473467366161</v>
+        <v>8.093081999999999</v>
       </c>
       <c r="O3">
-        <v>0.399378817821013</v>
+        <v>0.6114630364782021</v>
       </c>
       <c r="P3">
-        <v>0.399378817821013</v>
+        <v>0.611463036478202</v>
       </c>
       <c r="Q3">
-        <v>6.793760641255407</v>
+        <v>11.77973263577333</v>
       </c>
       <c r="R3">
-        <v>6.793760641255407</v>
+        <v>106.01759372196</v>
       </c>
       <c r="S3">
-        <v>0.0645504144388141</v>
+        <v>0.09845439683263267</v>
       </c>
       <c r="T3">
-        <v>0.0645504144388141</v>
+        <v>0.09845439683263264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.54169600286109</v>
+        <v>4.366593333333333</v>
       </c>
       <c r="H4">
-        <v>3.54169600286109</v>
+        <v>13.09978</v>
       </c>
       <c r="I4">
-        <v>0.1360555363077222</v>
+        <v>0.1610144701463773</v>
       </c>
       <c r="J4">
-        <v>0.1360555363077222</v>
+        <v>0.1610144701463773</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42838078867439</v>
+        <v>1.673768333333333</v>
       </c>
       <c r="N4">
-        <v>2.42838078867439</v>
+        <v>5.021305</v>
       </c>
       <c r="O4">
-        <v>0.6006211821789871</v>
+        <v>0.3793786350346109</v>
       </c>
       <c r="P4">
-        <v>0.6006211821789871</v>
+        <v>0.3793786350346108</v>
       </c>
       <c r="Q4">
-        <v>8.600586532672748</v>
+        <v>7.308665645877777</v>
       </c>
       <c r="R4">
-        <v>8.600586532672748</v>
+        <v>65.7779908129</v>
       </c>
       <c r="S4">
-        <v>0.08171783705914019</v>
+        <v>0.06108544990495371</v>
       </c>
       <c r="T4">
-        <v>0.08171783705914019</v>
+        <v>0.0610854499049537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.54169600286109</v>
+        <v>3.732182666666667</v>
       </c>
       <c r="H5">
-        <v>3.54169600286109</v>
+        <v>11.196548</v>
       </c>
       <c r="I5">
-        <v>0.1360555363077222</v>
+        <v>0.1376211084223155</v>
       </c>
       <c r="J5">
-        <v>0.1360555363077222</v>
+        <v>0.1376211084223155</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.61473467366161</v>
+        <v>0.04040533333333333</v>
       </c>
       <c r="N5">
-        <v>1.61473467366161</v>
+        <v>0.121216</v>
       </c>
       <c r="O5">
-        <v>0.399378817821013</v>
+        <v>0.009158328487187175</v>
       </c>
       <c r="P5">
-        <v>0.399378817821013</v>
+        <v>0.009158328487187173</v>
       </c>
       <c r="Q5">
-        <v>5.71889933938853</v>
+        <v>0.1508000847075556</v>
       </c>
       <c r="R5">
-        <v>5.71889933938853</v>
+        <v>1.357200762368</v>
       </c>
       <c r="S5">
-        <v>0.054337699248582</v>
+        <v>0.001260379317702367</v>
       </c>
       <c r="T5">
-        <v>0.054337699248582</v>
+        <v>0.001260379317702367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.44052573538287</v>
+        <v>3.732182666666667</v>
       </c>
       <c r="H6">
-        <v>8.44052573538287</v>
+        <v>11.196548</v>
       </c>
       <c r="I6">
-        <v>0.324245856990253</v>
+        <v>0.1376211084223155</v>
       </c>
       <c r="J6">
-        <v>0.324245856990253</v>
+        <v>0.1376211084223155</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42838078867439</v>
+        <v>2.697694</v>
       </c>
       <c r="N6">
-        <v>2.42838078867439</v>
+        <v>8.093081999999999</v>
       </c>
       <c r="O6">
-        <v>0.6006211821789871</v>
+        <v>0.6114630364782021</v>
       </c>
       <c r="P6">
-        <v>0.6006211821789871</v>
+        <v>0.611463036478202</v>
       </c>
       <c r="Q6">
-        <v>20.49681054211554</v>
+        <v>10.06828678677067</v>
       </c>
       <c r="R6">
-        <v>20.49681054211554</v>
+        <v>90.61458108093599</v>
       </c>
       <c r="S6">
-        <v>0.1947489299421245</v>
+        <v>0.08415022083940492</v>
       </c>
       <c r="T6">
-        <v>0.1947489299421245</v>
+        <v>0.0841502208394049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.44052573538287</v>
+        <v>3.732182666666667</v>
       </c>
       <c r="H7">
-        <v>8.44052573538287</v>
+        <v>11.196548</v>
       </c>
       <c r="I7">
-        <v>0.324245856990253</v>
+        <v>0.1376211084223155</v>
       </c>
       <c r="J7">
-        <v>0.324245856990253</v>
+        <v>0.1376211084223155</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.61473467366161</v>
+        <v>1.673768333333333</v>
       </c>
       <c r="N7">
-        <v>1.61473467366161</v>
+        <v>5.021305</v>
       </c>
       <c r="O7">
-        <v>0.399378817821013</v>
+        <v>0.3793786350346109</v>
       </c>
       <c r="P7">
-        <v>0.399378817821013</v>
+        <v>0.3793786350346108</v>
       </c>
       <c r="Q7">
-        <v>13.62920956885588</v>
+        <v>6.246809161682222</v>
       </c>
       <c r="R7">
-        <v>13.62920956885588</v>
+        <v>56.22128245514</v>
       </c>
       <c r="S7">
-        <v>0.1294969270481285</v>
+        <v>0.05221050826520825</v>
       </c>
       <c r="T7">
-        <v>0.1294969270481285</v>
+        <v>0.05221050826520824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.553925739998871</v>
+        <v>8.955599666666666</v>
       </c>
       <c r="H8">
-        <v>9.553925739998871</v>
+        <v>26.866799</v>
       </c>
       <c r="I8">
-        <v>0.3670175219300662</v>
+        <v>0.3302302332950797</v>
       </c>
       <c r="J8">
-        <v>0.3670175219300662</v>
+        <v>0.3302302332950797</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.42838078867439</v>
+        <v>0.04040533333333333</v>
       </c>
       <c r="N8">
-        <v>2.42838078867439</v>
+        <v>0.121216</v>
       </c>
       <c r="O8">
-        <v>0.6006211821789871</v>
+        <v>0.009158328487187175</v>
       </c>
       <c r="P8">
-        <v>0.6006211821789871</v>
+        <v>0.009158328487187173</v>
       </c>
       <c r="Q8">
-        <v>23.20056972343501</v>
+        <v>0.3618539897315555</v>
       </c>
       <c r="R8">
-        <v>23.20056972343501</v>
+        <v>3.256685907584</v>
       </c>
       <c r="S8">
-        <v>0.2204384979020387</v>
+        <v>0.003024356952916795</v>
       </c>
       <c r="T8">
-        <v>0.2204384979020387</v>
+        <v>0.003024356952916794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.553925739998871</v>
+        <v>8.955599666666666</v>
       </c>
       <c r="H9">
-        <v>9.553925739998871</v>
+        <v>26.866799</v>
       </c>
       <c r="I9">
-        <v>0.3670175219300662</v>
+        <v>0.3302302332950797</v>
       </c>
       <c r="J9">
-        <v>0.3670175219300662</v>
+        <v>0.3302302332950797</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.61473467366161</v>
+        <v>2.697694</v>
       </c>
       <c r="N9">
-        <v>1.61473467366161</v>
+        <v>8.093081999999999</v>
       </c>
       <c r="O9">
-        <v>0.399378817821013</v>
+        <v>0.6114630364782021</v>
       </c>
       <c r="P9">
-        <v>0.399378817821013</v>
+        <v>0.611463036478202</v>
       </c>
       <c r="Q9">
-        <v>15.42705516196433</v>
+        <v>24.15946748716866</v>
       </c>
       <c r="R9">
-        <v>15.42705516196433</v>
+        <v>217.435207384518</v>
       </c>
       <c r="S9">
-        <v>0.1465790240280276</v>
+        <v>0.2019235811875145</v>
       </c>
       <c r="T9">
-        <v>0.1465790240280276</v>
+        <v>0.2019235811875144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.287750741629641</v>
+        <v>8.955599666666666</v>
       </c>
       <c r="H10">
-        <v>0.287750741629641</v>
+        <v>26.866799</v>
       </c>
       <c r="I10">
-        <v>0.01105404908940208</v>
+        <v>0.3302302332950797</v>
       </c>
       <c r="J10">
-        <v>0.01105404908940208</v>
+        <v>0.3302302332950797</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.42838078867439</v>
+        <v>1.673768333333333</v>
       </c>
       <c r="N10">
-        <v>2.42838078867439</v>
+        <v>5.021305</v>
       </c>
       <c r="O10">
-        <v>0.6006211821789871</v>
+        <v>0.3793786350346109</v>
       </c>
       <c r="P10">
-        <v>0.6006211821789871</v>
+        <v>0.3793786350346108</v>
       </c>
       <c r="Q10">
-        <v>0.6987683729002282</v>
+        <v>14.98959912807722</v>
       </c>
       <c r="R10">
-        <v>0.6987683729002282</v>
+        <v>134.906392152695</v>
       </c>
       <c r="S10">
-        <v>0.006639296031941231</v>
+        <v>0.1252822951546484</v>
       </c>
       <c r="T10">
-        <v>0.006639296031941231</v>
+        <v>0.1252822951546484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.764211666666668</v>
+      </c>
+      <c r="H11">
+        <v>29.292635</v>
+      </c>
+      <c r="I11">
+        <v>0.3600471232124682</v>
+      </c>
+      <c r="J11">
+        <v>0.3600471232124682</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.04040533333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.121216</v>
+      </c>
+      <c r="O11">
+        <v>0.009158328487187175</v>
+      </c>
+      <c r="P11">
+        <v>0.009158328487187173</v>
+      </c>
+      <c r="Q11">
+        <v>0.394526227128889</v>
+      </c>
+      <c r="R11">
+        <v>3.550736044160001</v>
+      </c>
+      <c r="S11">
+        <v>0.003297429825246538</v>
+      </c>
+      <c r="T11">
+        <v>0.003297429825246537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.287750741629641</v>
-      </c>
-      <c r="H11">
-        <v>0.287750741629641</v>
-      </c>
-      <c r="I11">
-        <v>0.01105404908940208</v>
-      </c>
-      <c r="J11">
-        <v>0.01105404908940208</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.61473467366161</v>
-      </c>
-      <c r="N11">
-        <v>1.61473467366161</v>
-      </c>
-      <c r="O11">
-        <v>0.399378817821013</v>
-      </c>
-      <c r="P11">
-        <v>0.399378817821013</v>
-      </c>
-      <c r="Q11">
-        <v>0.4646410998812246</v>
-      </c>
-      <c r="R11">
-        <v>0.4646410998812246</v>
-      </c>
-      <c r="S11">
-        <v>0.004414753057460846</v>
-      </c>
-      <c r="T11">
-        <v>0.004414753057460846</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.764211666666668</v>
+      </c>
+      <c r="H12">
+        <v>29.292635</v>
+      </c>
+      <c r="I12">
+        <v>0.3600471232124682</v>
+      </c>
+      <c r="J12">
+        <v>0.3600471232124682</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.697694</v>
+      </c>
+      <c r="N12">
+        <v>8.093081999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.6114630364782021</v>
+      </c>
+      <c r="P12">
+        <v>0.611463036478202</v>
+      </c>
+      <c r="Q12">
+        <v>26.34085522789667</v>
+      </c>
+      <c r="R12">
+        <v>237.06769705107</v>
+      </c>
+      <c r="S12">
+        <v>0.2201555072347371</v>
+      </c>
+      <c r="T12">
+        <v>0.2201555072347371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.764211666666668</v>
+      </c>
+      <c r="H13">
+        <v>29.292635</v>
+      </c>
+      <c r="I13">
+        <v>0.3600471232124682</v>
+      </c>
+      <c r="J13">
+        <v>0.3600471232124682</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.673768333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.021305</v>
+      </c>
+      <c r="O13">
+        <v>0.3793786350346109</v>
+      </c>
+      <c r="P13">
+        <v>0.3793786350346108</v>
+      </c>
+      <c r="Q13">
+        <v>16.34302828763056</v>
+      </c>
+      <c r="R13">
+        <v>147.087254588675</v>
+      </c>
+      <c r="S13">
+        <v>0.1365941861524845</v>
+      </c>
+      <c r="T13">
+        <v>0.1365941861524845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.300673</v>
+      </c>
+      <c r="H14">
+        <v>0.9020190000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01108706492375941</v>
+      </c>
+      <c r="J14">
+        <v>0.01108706492375941</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04040533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.121216</v>
+      </c>
+      <c r="O14">
+        <v>0.009158328487187175</v>
+      </c>
+      <c r="P14">
+        <v>0.009158328487187173</v>
+      </c>
+      <c r="Q14">
+        <v>0.01214879278933334</v>
+      </c>
+      <c r="R14">
+        <v>0.109339135104</v>
+      </c>
+      <c r="S14">
+        <v>0.0001015389825305595</v>
+      </c>
+      <c r="T14">
+        <v>0.0001015389825305595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.300673</v>
+      </c>
+      <c r="H15">
+        <v>0.9020190000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01108706492375941</v>
+      </c>
+      <c r="J15">
+        <v>0.01108706492375941</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.697694</v>
+      </c>
+      <c r="N15">
+        <v>8.093081999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6114630364782021</v>
+      </c>
+      <c r="P15">
+        <v>0.611463036478202</v>
+      </c>
+      <c r="Q15">
+        <v>0.811123748062</v>
+      </c>
+      <c r="R15">
+        <v>7.300113732558001</v>
+      </c>
+      <c r="S15">
+        <v>0.006779330383912897</v>
+      </c>
+      <c r="T15">
+        <v>0.006779330383912896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.300673</v>
+      </c>
+      <c r="H16">
+        <v>0.9020190000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01108706492375941</v>
+      </c>
+      <c r="J16">
+        <v>0.01108706492375941</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.673768333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.021305</v>
+      </c>
+      <c r="O16">
+        <v>0.3793786350346109</v>
+      </c>
+      <c r="P16">
+        <v>0.3793786350346108</v>
+      </c>
+      <c r="Q16">
+        <v>0.5032569460883334</v>
+      </c>
+      <c r="R16">
+        <v>4.529312514795</v>
+      </c>
+      <c r="S16">
+        <v>0.004206195557315958</v>
+      </c>
+      <c r="T16">
+        <v>0.004206195557315958</v>
       </c>
     </row>
   </sheetData>
